--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T16:17:08+00:00</t>
+    <t>2022-02-25T16:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BeBvoEpisodeOfCare</t>
+    <t>BePopulationBasedScreeningEpisodeOfCare</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T16:33:50+00:00</t>
+    <t>2022-03-04T07:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -695,7 +695,7 @@
     <t>EpisodeOfCare.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
 </t>
   </si>
   <si>

--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T07:40:22+00:00</t>
+    <t>2022-03-04T08:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$35</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="254">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:50:25+00:00</t>
+    <t>2022-03-04T09:19:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,6 +455,16 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>nextInvitationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/BvoNextInvitationIndication}
+</t>
+  </si>
+  <si>
+    <t>The estimated date on which to expect the next invitation</t>
   </si>
   <si>
     <t>EpisodeOfCare.modifierExtension</t>
@@ -1137,7 +1147,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL34"/>
+  <dimension ref="A1:AL35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1147,7 +1157,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.5546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2268,43 +2278,41 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2352,7 +2360,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2361,7 +2369,7 @@
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>136</v>
@@ -2370,7 +2378,7 @@
         <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>78</v>
@@ -2378,11 +2386,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2395,22 +2403,26 @@
         <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2458,7 +2470,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2470,21 +2482,21 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2492,39 +2504,37 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>78</v>
@@ -2542,13 +2552,13 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
@@ -2566,13 +2576,13 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
@@ -2581,18 +2591,18 @@
         <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2600,37 +2610,39 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>78</v>
@@ -2648,13 +2660,13 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
@@ -2672,13 +2684,13 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
@@ -2687,18 +2699,18 @@
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2709,7 +2721,7 @@
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -2721,7 +2733,7 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>168</v>
@@ -2778,25 +2790,25 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>78</v>
@@ -2804,18 +2816,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -2827,17 +2839,15 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -2886,19 +2896,19 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
@@ -2912,11 +2922,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2929,26 +2939,24 @@
         <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>78</v>
       </c>
@@ -2996,7 +3004,7 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3014,7 +3022,7 @@
         <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
@@ -3022,39 +3030,43 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3078,13 +3090,13 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>78</v>
@@ -3102,25 +3114,25 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
@@ -3128,7 +3140,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3151,13 +3163,13 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3184,13 +3196,13 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>78</v>
@@ -3208,7 +3220,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>85</v>
@@ -3234,7 +3246,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3242,10 +3254,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -3254,20 +3266,18 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>189</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>78</v>
@@ -3292,13 +3302,13 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>78</v>
@@ -3316,13 +3326,13 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
@@ -3331,18 +3341,18 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3365,15 +3375,17 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>78</v>
@@ -3398,13 +3410,13 @@
         <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>78</v>
@@ -3422,7 +3434,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3437,13 +3449,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -3459,7 +3471,7 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -3468,16 +3480,16 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3528,25 +3540,25 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
@@ -3554,18 +3566,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -3577,17 +3589,15 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -3636,19 +3646,19 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
@@ -3662,11 +3672,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3679,26 +3689,24 @@
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>78</v>
       </c>
@@ -3746,7 +3754,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -3764,7 +3772,7 @@
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -3772,39 +3780,43 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
       </c>
@@ -3852,33 +3864,33 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3886,7 +3898,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
@@ -3901,13 +3913,13 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3934,13 +3946,13 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -3958,10 +3970,10 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>85</v>
@@ -3973,18 +3985,18 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4007,13 +4019,13 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4040,13 +4052,13 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -4064,7 +4076,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4090,7 +4102,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4098,7 +4110,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -4113,13 +4125,13 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4170,10 +4182,10 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
@@ -4185,18 +4197,18 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4204,7 +4216,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
@@ -4219,13 +4231,13 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4276,10 +4288,10 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
@@ -4291,18 +4303,18 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4325,13 +4337,13 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4382,7 +4394,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4397,18 +4409,18 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4419,7 +4431,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -4428,16 +4440,16 @@
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4488,13 +4500,13 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
@@ -4503,18 +4515,18 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4525,7 +4537,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -4537,13 +4549,13 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4594,13 +4606,13 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
@@ -4609,7 +4621,7 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -4620,18 +4632,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -4643,13 +4655,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4700,13 +4712,13 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
@@ -4715,7 +4727,7 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -4726,11 +4738,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4749,17 +4761,15 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -4808,7 +4818,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -4823,7 +4833,7 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -4832,8 +4842,116 @@
         <v>78</v>
       </c>
     </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL34">
+  <autoFilter ref="A1:AL35">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4843,7 +4961,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI33">
+  <conditionalFormatting sqref="A2:AI34">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="255">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>belgian-bevolkingsonderzoek-episode-of-care</t>
+    <t>BE Episode Bevolkingsonderzoek</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T09:19:21+00:00</t>
+    <t>2022-03-11T15:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -620,6 +620,13 @@
   </si>
   <si>
     <t>The type can be very important in processing as this could be used in determining if the EpisodeOfCare is relevant to specific government reporting, or other types of classifications.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="cacp"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>example</t>
@@ -3392,7 +3399,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>78</v>
@@ -3410,13 +3417,13 @@
         <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>78</v>
@@ -3449,18 +3456,18 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3486,10 +3493,10 @@
         <v>167</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3540,7 +3547,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3566,7 +3573,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3672,7 +3679,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3780,7 +3787,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3890,7 +3897,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3913,13 +3920,13 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3970,7 +3977,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>85</v>
@@ -3985,18 +3992,18 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4022,10 +4029,10 @@
         <v>189</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4055,10 +4062,10 @@
         <v>109</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -4076,7 +4083,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4102,7 +4109,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4125,13 +4132,13 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4182,7 +4189,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4208,7 +4215,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4231,13 +4238,13 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4288,7 +4295,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>85</v>
@@ -4303,18 +4310,18 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4337,13 +4344,13 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4394,7 +4401,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4409,7 +4416,7 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -4420,7 +4427,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4446,10 +4453,10 @@
         <v>185</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4500,7 +4507,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -4515,18 +4522,18 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4549,13 +4556,13 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4606,7 +4613,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4621,7 +4628,7 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -4632,7 +4639,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4655,13 +4662,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4712,7 +4719,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -4727,7 +4734,7 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -4738,11 +4745,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4761,13 +4768,13 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4818,7 +4825,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -4833,7 +4840,7 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -4844,7 +4851,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4867,16 +4874,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4926,7 +4933,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>

--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T15:39:18+00:00</t>
+    <t>2022-03-11T16:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$35</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="250">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T16:12:42+00:00</t>
+    <t>2022-03-29T08:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -443,30 +440,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/BvoConditionCode}
+    <t>nextInvitationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/BvoNextInvitationIndication}
 </t>
   </si>
   <si>
-    <t>The certainty of diagnosis</t>
+    <t>The estimated date on which to expect the next invitation</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>nextInvitationDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/BvoNextInvitationIndication}
-</t>
-  </si>
-  <si>
-    <t>The estimated date on which to expect the next invitation</t>
-  </si>
-  <si>
     <t>EpisodeOfCare.modifierExtension</t>
   </si>
   <si>
@@ -622,20 +609,10 @@
     <t>The type can be very important in processing as this could be used in determining if the EpisodeOfCare is relevant to specific government reporting, or other types of classifications.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;code value="cacp"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The type of the episode of care.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/episodeofcare-type</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/bevolkingsonderzoek-screening-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -947,21 +924,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1154,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL35"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1187,7 +1149,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="44.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="81.7421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -1319,7 +1281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1425,7 +1387,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>84</v>
       </c>
@@ -1533,7 +1495,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>92</v>
       </c>
@@ -1639,7 +1601,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>98</v>
       </c>
@@ -1747,7 +1709,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>104</v>
       </c>
@@ -1855,7 +1817,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>113</v>
       </c>
@@ -1963,7 +1925,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>121</v>
       </c>
@@ -2071,7 +2033,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>129</v>
       </c>
@@ -2193,7 +2155,7 @@
         <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
@@ -2283,43 +2245,45 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>141</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2367,7 +2331,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2376,7 +2340,7 @@
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>136</v>
@@ -2385,19 +2349,19 @@
         <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2410,26 +2374,22 @@
         <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2477,7 +2437,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2489,21 +2449,21 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" hidden="true">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2511,30 +2471,32 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -2559,13 +2521,13 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
@@ -2583,13 +2545,13 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
@@ -2598,18 +2560,18 @@
         <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2617,39 +2579,37 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>78</v>
@@ -2667,37 +2627,37 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AF14" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
@@ -2706,18 +2666,18 @@
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2728,7 +2688,7 @@
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -2740,7 +2700,7 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>168</v>
@@ -2797,44 +2757,44 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -2846,15 +2806,17 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -2903,19 +2865,19 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
@@ -2927,13 +2889,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2946,24 +2908,26 @@
         <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3011,7 +2975,7 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3029,51 +2993,47 @@
         <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3097,13 +3057,13 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>78</v>
@@ -3121,33 +3081,33 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3170,13 +3130,13 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3203,13 +3163,13 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>78</v>
@@ -3227,7 +3187,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>85</v>
@@ -3251,9 +3211,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3261,10 +3221,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -3273,18 +3233,20 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>78</v>
@@ -3309,13 +3271,11 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>78</v>
@@ -3333,13 +3293,13 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
@@ -3348,18 +3308,18 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3382,24 +3342,22 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>78</v>
@@ -3417,31 +3375,31 @@
         <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3456,18 +3414,18 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3478,7 +3436,7 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -3487,16 +3445,16 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3547,44 +3505,44 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -3596,15 +3554,17 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -3653,19 +3613,19 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
@@ -3677,13 +3637,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3696,24 +3656,26 @@
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
       </c>
@@ -3761,7 +3723,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -3779,51 +3741,47 @@
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>78</v>
       </c>
@@ -3871,33 +3829,33 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3905,7 +3863,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
@@ -3920,7 +3878,7 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>207</v>
@@ -3953,13 +3911,13 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -3977,10 +3935,10 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>85</v>
@@ -3992,16 +3950,16 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>211</v>
       </c>
@@ -4026,13 +3984,13 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4059,13 +4017,13 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -4107,9 +4065,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4117,7 +4075,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -4132,13 +4090,13 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4189,10 +4147,10 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
@@ -4204,18 +4162,18 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4223,7 +4181,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
@@ -4238,13 +4196,13 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4295,10 +4253,10 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
@@ -4310,16 +4268,16 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>226</v>
       </c>
@@ -4344,13 +4302,13 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4416,16 +4374,16 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
+    </row>
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>231</v>
       </c>
@@ -4438,7 +4396,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -4447,16 +4405,16 @@
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4513,7 +4471,7 @@
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
@@ -4522,16 +4480,16 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>236</v>
       </c>
@@ -4544,7 +4502,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -4619,7 +4577,7 @@
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
@@ -4628,29 +4586,29 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -4719,13 +4677,13 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
@@ -4734,7 +4692,7 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -4743,13 +4701,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>245</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4768,15 +4726,17 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -4840,7 +4800,7 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -4849,133 +4809,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL35">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI34">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T08:17:10+00:00</t>
+    <t>2022-03-29T08:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T08:21:37+00:00</t>
+    <t>2022-03-29T10:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T10:12:25+00:00</t>
+    <t>2022-03-30T15:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:39:36+00:00</t>
+    <t>2022-04-06T16:28:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="253">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T16:28:25+00:00</t>
+    <t>2022-04-08T16:35:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -443,15 +443,25 @@
     <t>nextInvitationDate</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/BvoNextInvitationIndicationDate}
+</t>
+  </si>
+  <si>
+    <t>The estimated date on which to expect the next invitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>nextInvitationIndication</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/BvoNextInvitationIndication}
 </t>
   </si>
   <si>
-    <t>The estimated date on which to expect the next invitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>This is variable text giving an estimate when the next screening is scheduled, if there is any and why.</t>
   </si>
   <si>
     <t>EpisodeOfCare.modifierExtension</t>
@@ -1116,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL34"/>
+  <dimension ref="A1:AL35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1126,7 +1136,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.5546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.8046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2043,7 +2053,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>77</v>
@@ -2247,43 +2257,41 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2331,7 +2339,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2340,7 +2348,7 @@
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>136</v>
@@ -2349,7 +2357,7 @@
         <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>78</v>
@@ -2357,11 +2365,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2374,22 +2382,26 @@
         <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2437,7 +2449,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2449,21 +2461,21 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2471,32 +2483,30 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -2521,13 +2531,13 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
@@ -2545,13 +2555,13 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
@@ -2560,18 +2570,18 @@
         <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2579,30 +2589,32 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>78</v>
@@ -2627,13 +2639,13 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
@@ -2651,13 +2663,13 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
@@ -2666,18 +2678,18 @@
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2688,7 +2700,7 @@
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -2700,7 +2712,7 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>168</v>
@@ -2757,25 +2769,25 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>78</v>
@@ -2783,18 +2795,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -2806,17 +2818,15 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -2865,19 +2875,19 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
@@ -2891,11 +2901,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2908,26 +2918,24 @@
         <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>78</v>
       </c>
@@ -2975,7 +2983,7 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -2993,7 +3001,7 @@
         <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
@@ -3001,39 +3009,43 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3057,13 +3069,13 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>78</v>
@@ -3081,25 +3093,25 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
@@ -3107,7 +3119,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3130,13 +3142,13 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3163,13 +3175,13 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>78</v>
@@ -3187,7 +3199,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>85</v>
@@ -3213,7 +3225,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3221,10 +3233,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -3233,20 +3245,18 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>189</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>78</v>
@@ -3271,11 +3281,13 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y20" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>78</v>
@@ -3293,13 +3305,13 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
@@ -3308,18 +3320,18 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3342,15 +3354,17 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>78</v>
@@ -3375,13 +3389,11 @@
         <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>78</v>
@@ -3399,7 +3411,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3414,13 +3426,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
@@ -3436,7 +3448,7 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -3445,16 +3457,16 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3505,25 +3517,25 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
@@ -3531,18 +3543,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -3554,17 +3566,15 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -3613,19 +3623,19 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
@@ -3639,11 +3649,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3656,26 +3666,24 @@
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>78</v>
       </c>
@@ -3723,7 +3731,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -3741,7 +3749,7 @@
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -3749,39 +3757,43 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
       </c>
@@ -3829,33 +3841,33 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3863,7 +3875,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
@@ -3878,13 +3890,13 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3911,13 +3923,13 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -3935,10 +3947,10 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>85</v>
@@ -3950,18 +3962,18 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3984,13 +3996,13 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4017,13 +4029,13 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -4041,7 +4053,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4067,7 +4079,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4075,7 +4087,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -4090,13 +4102,13 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4147,10 +4159,10 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
@@ -4162,18 +4174,18 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4181,7 +4193,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
@@ -4196,13 +4208,13 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4253,10 +4265,10 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
@@ -4268,18 +4280,18 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4302,13 +4314,13 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4359,7 +4371,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4374,18 +4386,18 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4396,7 +4408,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -4405,16 +4417,16 @@
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4465,13 +4477,13 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
@@ -4480,18 +4492,18 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4502,7 +4514,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -4514,13 +4526,13 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4571,13 +4583,13 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
@@ -4586,7 +4598,7 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -4597,18 +4609,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -4620,13 +4632,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4677,13 +4689,13 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
@@ -4692,7 +4704,7 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -4703,11 +4715,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4726,17 +4738,15 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>249</v>
-      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -4785,7 +4795,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -4800,12 +4810,120 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T16:35:46+00:00</t>
+    <t>2022-04-11T16:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
+++ b/branches/master/StructureDefinition-Be-Bvo-EpisodeOfCare.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:06:52+00:00</t>
+    <t>2022-04-12T10:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
